--- a/AssetManagement/AssetManagement/bin/Debug/111.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\ZHasan20221Repo\AssetManagement\AssetManagement\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A7BF89-3AA0-4DB3-83FF-72742677AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B990C-D62C-4159-A283-CAB968BF9736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,6 +399,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,9 +412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +731,7 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -753,72 +753,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.6">
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="24.6">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -826,49 +826,49 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -930,10 +930,10 @@
     </row>
     <row r="8" spans="2:19" ht="16.8">
       <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="11" spans="2:19" ht="16.8">
       <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="3"/>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="14" spans="2:19" ht="16.8">
       <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="3"/>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="16" spans="2:19" ht="16.8">
       <c r="B16" s="3"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="3"/>
